--- a/inst/extdata/frac_smry_cptac_cmbn.xlsx
+++ b/inst/extdata/frac_smry_cptac_cmbn.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQ\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQDA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1095,7 +1095,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inst/extdata/frac_smry_cptac_cmbn.xlsx
+++ b/inst/extdata/frac_smry_cptac_cmbn.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQDA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CE06CD-1F09-4896-9841-4A02C243279B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fractions" sheetId="2" r:id="rId1"/>
@@ -720,7 +721,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -801,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -811,6 +812,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1090,18 +1092,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" customWidth="1"/>
+    <col min="4" max="4" width="73.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,7 +1328,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1334,7 +1336,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1342,7 +1344,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1350,7 +1352,7 @@
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1358,7 +1360,7 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1366,7 +1368,7 @@
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1374,7 +1376,7 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" t="s">
+      <c r="D33" s="5" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1382,7 +1384,7 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>161</v>
       </c>
     </row>
@@ -1390,7 +1392,7 @@
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1398,7 +1400,7 @@
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1406,7 +1408,7 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1414,7 +1416,7 @@
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" t="s">
+      <c r="D38" s="5" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1422,7 +1424,7 @@
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" t="s">
+      <c r="D39" s="5" t="s">
         <v>166</v>
       </c>
     </row>

--- a/inst/extdata/frac_smry_cptac_cmbn.xlsx
+++ b/inst/extdata/frac_smry_cptac_cmbn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Results\R\proteoQDA\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CE06CD-1F09-4896-9841-4A02C243279B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A9E147-A0E4-4C40-AB29-2078E90F3E40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20700" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,8 +1096,8 @@
   <dimension ref="A1:D229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
